--- a/Results/quality_metrics_reactions.xlsx
+++ b/Results/quality_metrics_reactions.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465</v>
+        <v>179</v>
       </c>
       <c r="C2" t="n">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D2" t="n">
-        <v>1166</v>
+        <v>1461</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6440443213296398</v>
+        <v>0.4475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2851011649294911</v>
+        <v>0.1091463414634146</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3952401189970251</v>
+        <v>0.1754901960784314</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7232142857142857</v>
+        <v>0.905937992643195</v>
       </c>
     </row>
     <row r="3">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465</v>
+        <v>1106</v>
       </c>
       <c r="C4" t="n">
-        <v>257</v>
+        <v>4053</v>
       </c>
       <c r="D4" t="n">
-        <v>1166</v>
+        <v>714</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6440443213296398</v>
+        <v>0.21438263229308</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2851011649294911</v>
+        <v>0.6076923076923076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3952401189970251</v>
+        <v>0.316950852557673</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7232142857142857</v>
+        <v>0.8746031746031746</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>465</v>
+        <v>790</v>
       </c>
       <c r="C5" t="n">
-        <v>257</v>
+        <v>1889</v>
       </c>
       <c r="D5" t="n">
-        <v>1166</v>
+        <v>875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6440443213296398</v>
+        <v>0.2948861515490855</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2851011649294911</v>
+        <v>0.4744744744744745</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3952401189970251</v>
+        <v>0.3637200736648251</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7232142857142857</v>
+        <v>0.8302170642596174</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="D6" t="n">
-        <v>1166</v>
+        <v>1547</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6440443213296398</v>
+        <v>0.1629327902240326</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2851011649294911</v>
+        <v>0.04917025199754149</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3952401189970251</v>
+        <v>0.07554296506137866</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7232142857142857</v>
+        <v>0.9662304769945125</v>
       </c>
     </row>
   </sheetData>

--- a/Results/quality_metrics_reactions.xlsx
+++ b/Results/quality_metrics_reactions.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -616,6 +616,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>